--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245F5A42-8BBE-48AB-AE8B-41C23934C38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10DDF14-F9CD-4007-A6C1-CDF3153EFD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>Portfolio Company Name *</t>
   </si>
@@ -63,13 +63,7 @@
     <t>KLAC</t>
   </si>
   <si>
-    <t xml:space="preserve">Fin Tech Fund 	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macro Fund 	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tech Fund 	</t>
+    <t>SAAS Fund</t>
   </si>
 </sst>
 </file>
@@ -391,7 +385,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -519,13 +513,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="D6">
         <v>2000000</v>
@@ -542,13 +536,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="D7">
         <v>1000000</v>
@@ -565,7 +559,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -588,7 +582,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10DDF14-F9CD-4007-A6C1-CDF3153EFD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73FCE93-7DFB-4E57-B435-6190E466DA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -571,7 +571,7 @@
         <v>2000000</v>
       </c>
       <c r="E8">
-        <v>-20000</v>
+        <v>20000</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -594,7 +594,7 @@
         <v>2000000</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>-10000</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73FCE93-7DFB-4E57-B435-6190E466DA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A38DBDC-5438-41A0-AF41-27A46B808A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>Portfolio Company Name *</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>SAAS Fund</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Folio No</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>CoInvest</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -382,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -396,7 +411,7 @@
     <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -418,8 +433,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -441,8 +462,11 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -464,8 +488,11 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -487,8 +514,11 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -510,8 +540,11 @@
       <c r="G5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -533,8 +566,11 @@
       <c r="G6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -556,8 +592,14 @@
       <c r="G7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -579,8 +621,11 @@
       <c r="G8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -601,6 +646,9 @@
       </c>
       <c r="G9" t="s">
         <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A38DBDC-5438-41A0-AF41-27A46B808A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A39509-80A7-4CEC-B7D5-D2FE94497E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t>Portfolio Company Name *</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Quantity *</t>
   </si>
   <si>
-    <t>Investment Type *</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -51,34 +48,58 @@
     <t>Apple</t>
   </si>
   <si>
+    <t>Bought during dip</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>KLAC</t>
+  </si>
+  <si>
+    <t>SAAS Fund</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Folio No</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>CoInvest</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Startup</t>
+  </si>
+  <si>
+    <t>Investment Domicile</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Unlisted</t>
+  </si>
+  <si>
     <t>Equity</t>
-  </si>
-  <si>
-    <t>Bought during dip</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>KLAC</t>
-  </si>
-  <si>
-    <t>SAAS Fund</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Folio No</t>
-  </si>
-  <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>CoInvest</t>
-  </si>
-  <si>
-    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -397,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J3" sqref="J3:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -408,12 +429,11 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -431,21 +451,33 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>43831</v>
@@ -457,21 +489,30 @@
         <v>20000</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>43831</v>
@@ -483,21 +524,30 @@
         <v>12000</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>43831</v>
@@ -509,21 +559,30 @@
         <v>-20000</v>
       </c>
       <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>43831</v>
@@ -535,21 +594,30 @@
         <v>10000</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>44197</v>
@@ -561,21 +629,30 @@
         <v>20000</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>44197</v>
@@ -587,24 +664,33 @@
         <v>12000</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>43831</v>
@@ -616,21 +702,30 @@
         <v>20000</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>43831</v>
@@ -642,13 +737,22 @@
         <v>-10000</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A39509-80A7-4CEC-B7D5-D2FE94497E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B913784-12F5-498D-B683-7B259A66DE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>Portfolio Company Name *</t>
   </si>
@@ -100,19 +100,42 @@
   </si>
   <si>
     <t>Equity</t>
+  </si>
+  <si>
+    <t>Pan *</t>
+  </si>
+  <si>
+    <t>BUHNXDFEA7</t>
+  </si>
+  <si>
+    <t>JN2GOV5FYX</t>
+  </si>
+  <si>
+    <t>CGKT9ROWB2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,15 +155,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{18893656-D531-4DAE-AC16-EFA61BBF1EF6}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{89B7DF89-F492-4764-A62E-F995A79F5BE1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,20 +446,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -439,319 +468,346 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1">
         <v>43831</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>20000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
         <v>43831</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>12000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
         <v>43831</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-20000</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
         <v>43831</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>10000</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
         <v>44197</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20000</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
         <v>44197</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12000</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
         <v>43831</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>20000</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
         <v>43831</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-10000</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>21</v>
       </c>
     </row>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B913784-12F5-498D-B683-7B259A66DE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9081D28-B13B-43D3-9993-9E556DBEA688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,18 +78,6 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Sub Category</t>
-  </si>
-  <si>
-    <t>Startup</t>
-  </si>
-  <si>
-    <t>Investment Domicile</t>
-  </si>
-  <si>
     <t>Domestic</t>
   </si>
   <si>
@@ -112,6 +100,18 @@
   </si>
   <si>
     <t>CGKT9ROWB2</t>
+  </si>
+  <si>
+    <t>Category *</t>
+  </si>
+  <si>
+    <t>Sub Category *</t>
+  </si>
+  <si>
+    <t>Startup *</t>
+  </si>
+  <si>
+    <t>Investment Domicile *</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -458,6 +458,7 @@
     <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1328125" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
@@ -468,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -492,16 +493,16 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -512,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>43831</v>
@@ -530,16 +531,16 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
@@ -550,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>43831</v>
@@ -568,16 +569,16 @@
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -588,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>43831</v>
@@ -606,16 +607,16 @@
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -626,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>43831</v>
@@ -644,16 +645,16 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -664,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>44197</v>
@@ -682,16 +683,16 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -702,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>44197</v>
@@ -723,16 +724,16 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -743,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>43831</v>
@@ -761,16 +762,16 @@
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -781,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>43831</v>
@@ -799,16 +800,16 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9081D28-B13B-43D3-9993-9E556DBEA688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B21DF95-E651-470C-A982-F61E927AE3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>Portfolio Company Name *</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Investment Domicile *</t>
+  </si>
+  <si>
+    <t>Custom Field 1</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O3" sqref="O3:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -461,7 +467,7 @@
     <col min="12" max="12" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -504,8 +510,11 @@
       <c r="N1" t="s">
         <v>28</v>
       </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -542,17 +551,18 @@
       <c r="N2" t="s">
         <v>17</v>
       </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="1">
         <v>43831</v>
       </c>
@@ -580,17 +590,18 @@
       <c r="N3" t="s">
         <v>17</v>
       </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="1">
         <v>43831</v>
       </c>
@@ -618,8 +629,11 @@
       <c r="N4" t="s">
         <v>17</v>
       </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -656,8 +670,11 @@
       <c r="N5" t="s">
         <v>17</v>
       </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -694,17 +711,18 @@
       <c r="N6" t="s">
         <v>17</v>
       </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="1">
         <v>44197</v>
       </c>
@@ -735,8 +753,11 @@
       <c r="N7" t="s">
         <v>17</v>
       </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -773,17 +794,18 @@
       <c r="N8" t="s">
         <v>17</v>
       </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="1">
         <v>43831</v>
       </c>
@@ -810,6 +832,9 @@
       </c>
       <c r="N9" t="s">
         <v>17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B21DF95-E651-470C-A982-F61E927AE3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAFFC73-66C1-401F-820B-7784809986F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
   <si>
     <t>Portfolio Company Name *</t>
   </si>
@@ -75,9 +75,6 @@
     <t>C1</t>
   </si>
   <si>
-    <t>Sector</t>
-  </si>
-  <si>
     <t>Domestic</t>
   </si>
   <si>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Sector *</t>
+  </si>
+  <si>
+    <t>Tech</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O9"/>
+      <selection activeCell="J3" sqref="J3:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -475,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -496,22 +499,22 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -522,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>43831</v>
@@ -539,20 +542,23 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -578,20 +584,23 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
       <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -617,20 +626,23 @@
       <c r="H4" t="s">
         <v>13</v>
       </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
       <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -641,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>43831</v>
@@ -658,20 +670,23 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
       <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -682,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>44197</v>
@@ -699,20 +714,23 @@
       <c r="H6" t="s">
         <v>13</v>
       </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
       <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -741,20 +759,23 @@
       <c r="I7" t="s">
         <v>15</v>
       </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
       <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
         <v>19</v>
       </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -765,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>43831</v>
@@ -782,20 +803,23 @@
       <c r="H8" t="s">
         <v>13</v>
       </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
       <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
         <v>19</v>
       </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -821,20 +845,23 @@
       <c r="H9" t="s">
         <v>13</v>
       </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
       <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
         <v>19</v>
       </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BD6D88-4712-48DB-B29B-AF19D2C58782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAD2ED8-E8B9-4895-83E0-9913867B9019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
   <si>
     <t>Fund</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>BUHNXDFEA7</t>
-  </si>
-  <si>
     <t>Bought during dip</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>MSFT</t>
   </si>
   <si>
-    <t>JN2GOV5FYX</t>
-  </si>
-  <si>
     <t>CoInvest</t>
   </si>
   <si>
@@ -109,31 +103,13 @@
   </si>
   <si>
     <t>KLAC</t>
-  </si>
-  <si>
-    <t>CGKT9ROWB2</t>
-  </si>
-  <si>
-    <t>Primary Email *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pan </t>
-  </si>
-  <si>
-    <t>tc@apple.com</t>
-  </si>
-  <si>
-    <t>sn@msft.com</t>
-  </si>
-  <si>
-    <t>jc@klac.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -150,14 +126,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -179,20 +147,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -507,22 +471,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="4" width="22.1328125" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" customWidth="1"/>
-    <col min="1025" max="1025" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" customWidth="1"/>
+    <col min="1023" max="1023" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,386 +494,347 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="1">
         <v>43831</v>
       </c>
-      <c r="F2">
+      <c r="D2">
         <v>2000000</v>
       </c>
-      <c r="G2">
+      <c r="E2">
         <v>20000</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2">
+      <c r="C3" s="1">
         <v>43831</v>
       </c>
-      <c r="F3">
+      <c r="D3">
         <v>1000000</v>
       </c>
-      <c r="G3">
+      <c r="E3">
         <v>12000</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2">
+      <c r="C4" s="1">
         <v>43831</v>
       </c>
-      <c r="F4">
+      <c r="D4">
         <v>2000000</v>
       </c>
-      <c r="G4">
+      <c r="E4">
         <v>-20000</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
         <v>21</v>
       </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
         <v>43831</v>
       </c>
-      <c r="F5">
+      <c r="D5">
         <v>2000000</v>
       </c>
-      <c r="G5">
+      <c r="E5">
         <v>10000</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
         <v>21</v>
       </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D6">
+        <v>2000000</v>
+      </c>
+      <c r="E6">
+        <v>20000</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F6">
-        <v>2000000</v>
-      </c>
-      <c r="G6">
-        <v>20000</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
         <v>21</v>
       </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2">
+      <c r="C7" s="1">
         <v>44197</v>
       </c>
-      <c r="F7">
+      <c r="D7">
         <v>1000000</v>
       </c>
-      <c r="G7">
+      <c r="E7">
         <v>12000</v>
       </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
         <v>21</v>
       </c>
-      <c r="O7" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
         <v>43831</v>
       </c>
-      <c r="F8">
+      <c r="D8">
         <v>2000000</v>
       </c>
-      <c r="G8">
+      <c r="E8">
         <v>20000</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
         <v>21</v>
       </c>
-      <c r="O8" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
         <v>43831</v>
       </c>
-      <c r="F9">
+      <c r="D9">
         <v>2000000</v>
       </c>
-      <c r="G9">
+      <c r="E9">
         <v>-10000</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
       </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
         <v>21</v>
-      </c>
-      <c r="O9" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{4DCF7CF0-DD4C-4440-A803-50675E96EA6A}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{ABDB7D42-77DC-45A5-B63B-646897A10538}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{871C0208-1BA4-43AB-9884-A0C88D1F4A80}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAD2ED8-E8B9-4895-83E0-9913867B9019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1326D5-33A3-4456-80FE-AA32E774F892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -482,6 +482,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="22.1328125" customWidth="1"/>
     <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14.9296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.3984375" customWidth="1"/>
     <col min="1023" max="1023" width="9.1328125" customWidth="1"/>
   </cols>
@@ -573,7 +574,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="D3">
         <v>1000000</v>
@@ -611,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>43831</v>
+        <v>44562</v>
       </c>
       <c r="D4">
         <v>2000000</v>
@@ -687,13 +688,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="D6">
         <v>2000000</v>
       </c>
       <c r="E6">
-        <v>20000</v>
+        <v>-3000</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Desktop\bulk files with notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1326D5-33A3-4456-80FE-AA32E774F892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC48CEEA-3056-4010-829D-16213DA2D020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,92 +33,446 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1EDAC91A-5D99-4A1F-A879-43CA85B7C1B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory: Fund name as recorded on CapHive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C3AE0F92-4603-49D5-BA1B-67C60F8E5D17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory: Portfolio Company name as recorded on CapHive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0394E82D-30B4-427B-8043-97CF0C3E1C7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory in dd/mm/yyyy format
+-Please sort the transactions 'date wise' before uploading to ensure proper portfolio attributions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D952B5F1-A45C-429C-A145-BC7754F6025B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{511AFEF2-4D9D-4640-95A6-167A026BCFD6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-Incase of sell transactions please specify a negative quantity
+-Please sort the transactions 'date wise' before uploading to ensure proper portfolio attributions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5295080F-76FD-43E7-8655-B110F8392C5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{AAFD3EA3-668A-4A29-B58F-B681C8B0C43D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pool / CoInvest</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FF4B0AE6-D4EE-4EAA-A6E8-CD874A5876E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Applicable if for CoInvest</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5B159814-8BBA-468E-8451-98AE691B1CD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-As per SEBI reporting requirements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{41870113-BABF-410A-901B-508CE92EBAA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-As per SEBI reporting requirements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{D0E59386-79D4-41E4-AAAE-A0EBB44DAB3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-As per SEBI reporting requirements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D6BCF5ED-968E-4E5B-A9B0-AF8E499CEBDB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-As per SEBI reporting requirements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{602457C6-8FAF-43CA-B4F5-170C6576FBB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-As per SEBI reporting requirements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{BDE580B4-B961-4BF5-9C4A-2F4F6D188BCD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-Can add any custom fields as per your requirement</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
   <si>
+    <t>Portfolio Company Name *</t>
+  </si>
+  <si>
+    <t>Investment Date *</t>
+  </si>
+  <si>
+    <t>Amount *</t>
+  </si>
+  <si>
+    <t>Quantity *</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Folio No</t>
+  </si>
+  <si>
+    <t>Sector *</t>
+  </si>
+  <si>
+    <t>Category *</t>
+  </si>
+  <si>
+    <t>Sub Category *</t>
+  </si>
+  <si>
+    <t>Startup *</t>
+  </si>
+  <si>
+    <t>Investment Domicile *</t>
+  </si>
+  <si>
+    <t>SAAS Fund</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Bought during dip</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Unlisted</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>CoInvest</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>KLAC</t>
+  </si>
+  <si>
     <t>Fund</t>
-  </si>
-  <si>
-    <t>Portfolio Company Name *</t>
-  </si>
-  <si>
-    <t>Investment Date *</t>
-  </si>
-  <si>
-    <t>Amount *</t>
-  </si>
-  <si>
-    <t>Quantity *</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Folio No</t>
-  </si>
-  <si>
-    <t>Sector *</t>
-  </si>
-  <si>
-    <t>Category *</t>
-  </si>
-  <si>
-    <t>Sub Category *</t>
-  </si>
-  <si>
-    <t>Startup *</t>
-  </si>
-  <si>
-    <t>Investment Domicile *</t>
-  </si>
-  <si>
-    <t>SAAS Fund</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Bought during dip</t>
-  </si>
-  <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>Tech</t>
-  </si>
-  <si>
-    <t>Unlisted</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>CoInvest</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>KLAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,6 +492,44 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,12 +539,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -152,9 +562,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,373 +885,396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="22.1328125" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
-    <col min="6" max="6" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" customWidth="1"/>
-    <col min="1023" max="1023" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="1022" width="8.53125" style="3"/>
+    <col min="1023" max="1023" width="9.1328125" style="3" customWidth="1"/>
+    <col min="1024" max="16384" width="8.53125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="4">
+        <v>44197</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44562</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
         <v>43831</v>
       </c>
-      <c r="D2">
+      <c r="D5" s="3">
         <v>2000000</v>
       </c>
-      <c r="E2">
+      <c r="E5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44927</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44197</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
-        <v>44197</v>
-      </c>
-      <c r="D3">
-        <v>1000000</v>
-      </c>
-      <c r="E3">
-        <v>12000</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44562</v>
-      </c>
-      <c r="D4">
-        <v>2000000</v>
-      </c>
-      <c r="E4">
-        <v>-20000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43831</v>
-      </c>
-      <c r="D5">
-        <v>2000000</v>
-      </c>
-      <c r="E5">
-        <v>10000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44927</v>
-      </c>
-      <c r="D6">
-        <v>2000000</v>
-      </c>
-      <c r="E6">
-        <v>-3000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44197</v>
-      </c>
-      <c r="D7">
-        <v>1000000</v>
-      </c>
-      <c r="E7">
-        <v>12000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43831</v>
-      </c>
-      <c r="D8">
-        <v>2000000</v>
-      </c>
-      <c r="E8">
-        <v>20000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43831</v>
-      </c>
-      <c r="D9">
-        <v>2000000</v>
-      </c>
-      <c r="E9">
-        <v>-10000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9 G10:G1048576" xr:uid="{9F4EEE1A-0CB9-45AA-8F71-CCB1140E7EAE}">
+      <formula1>"Pool,CoInvest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L1048576 L2:L9" xr:uid="{DEE2EB91-4B3A-415A-A78F-E5843E353171}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10:M1048576 M2:M9" xr:uid="{BDFADACD-8F8E-44D2-BB58-654B74D9600B}">
+      <formula1>"Domestic,Overseas"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Desktop\bulk files with notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC48CEEA-3056-4010-829D-16213DA2D020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DF7239-C835-4695-8863-855E9258ECB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5B159814-8BBA-468E-8451-98AE691B1CD4}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{5B159814-8BBA-468E-8451-98AE691B1CD4}">
       <text>
         <r>
           <rPr>
@@ -259,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{41870113-BABF-410A-901B-508CE92EBAA0}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{41870113-BABF-410A-901B-508CE92EBAA0}">
       <text>
         <r>
           <rPr>
@@ -284,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{D0E59386-79D4-41E4-AAAE-A0EBB44DAB3B}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D0E59386-79D4-41E4-AAAE-A0EBB44DAB3B}">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D6BCF5ED-968E-4E5B-A9B0-AF8E499CEBDB}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{D6BCF5ED-968E-4E5B-A9B0-AF8E499CEBDB}">
       <text>
         <r>
           <rPr>
@@ -334,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{602457C6-8FAF-43CA-B4F5-170C6576FBB4}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{602457C6-8FAF-43CA-B4F5-170C6576FBB4}">
       <text>
         <r>
           <rPr>
@@ -359,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{BDE580B4-B961-4BF5-9C4A-2F4F6D188BCD}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{BDE580B4-B961-4BF5-9C4A-2F4F6D188BCD}">
       <text>
         <r>
           <rPr>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
   <si>
     <t>Portfolio Company Name *</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>Fund</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Stock</t>
   </si>
 </sst>
 </file>
@@ -886,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I3" sqref="I3:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -902,17 +908,18 @@
     <col min="6" max="6" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.9296875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.9296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="1022" width="8.53125" style="3"/>
-    <col min="1023" max="1023" width="9.1328125" style="3" customWidth="1"/>
-    <col min="1024" max="16384" width="8.53125" style="3"/>
+    <col min="9" max="9" width="8.19921875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="1023" width="8.53125" style="3"/>
+    <col min="1024" max="1024" width="9.1328125" style="3" customWidth="1"/>
+    <col min="1025" max="16384" width="8.53125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -938,23 +945,26 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -977,22 +987,25 @@
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1015,22 +1028,25 @@
         <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1053,22 +1069,25 @@
         <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1091,22 +1110,25 @@
         <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1129,22 +1151,25 @@
         <v>15</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1170,22 +1195,25 @@
         <v>23</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1208,22 +1236,25 @@
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1246,30 +1277,33 @@
         <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9 G10:G1048576" xr:uid="{9F4EEE1A-0CB9-45AA-8F71-CCB1140E7EAE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{9F4EEE1A-0CB9-45AA-8F71-CCB1140E7EAE}">
       <formula1>"Pool,CoInvest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L1048576 L2:L9" xr:uid="{DEE2EB91-4B3A-415A-A78F-E5843E353171}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{DEE2EB91-4B3A-415A-A78F-E5843E353171}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10:M1048576 M2:M9" xr:uid="{BDFADACD-8F8E-44D2-BB58-654B74D9600B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{BDFADACD-8F8E-44D2-BB58-654B74D9600B}">
       <formula1>"Domestic,Overseas"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B71E34-906D-4EA3-AD43-A84018674E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,11 +51,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Mandatory: Fund name as recorded on CapHive</t>
+          <t>Mandatory: Fund name as recorded on CapHive</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,14 +73,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Mandatory: Portfolio Company name as recorded on CapHive</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Mandatory: Portfolio Company name as recorded on CapHive</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,15 +97,14 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Mandatory in dd/mm/yyyy format
+            <charset val="1"/>
+          </rPr>
+          <t>-Mandatory in dd/mm/yyyy format
 -Please sort the transactions 'date wise' before uploading to ensure proper portfolio attributions</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -119,14 +122,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Mandatory</t>
+            <charset val="1"/>
+          </rPr>
+          <t>-Mandatory</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -144,16 +146,15 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Mandatory
+            <charset val="1"/>
+          </rPr>
+          <t>-Mandatory
 -Incase of sell transactions please specify a negative quantity
 -Please sort the transactions 'date wise' before uploading to ensure proper portfolio attributions</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -171,14 +172,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Optional</t>
+            <charset val="1"/>
+          </rPr>
+          <t>-Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -199,11 +199,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Pool / CoInvest</t>
+          <t>Pool / CoInvest</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -224,11 +224,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Applicable if for CoInvest</t>
+          <t>Applicable if for CoInvest</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -246,10 +246,9 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Mandatory
+            <charset val="1"/>
+          </rPr>
+          <t>-Mandatory
 -As per SEBI reporting requirements</t>
         </r>
       </text>
@@ -259,98 +258,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portfolio Company Name *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investment Date *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folio No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investment Domicile *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAAS Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bought during dip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoInvest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLAC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+  <si>
+    <t>Fund</t>
+  </si>
+  <si>
+    <t>Portfolio Company Name *</t>
+  </si>
+  <si>
+    <t>Investment Date *</t>
+  </si>
+  <si>
+    <t>Amount *</t>
+  </si>
+  <si>
+    <t>Quantity *</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Folio No</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Investment Domicile *</t>
+  </si>
+  <si>
+    <t>SAAS Fund</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Bought during dip</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>CoInvest</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>KLAC</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -372,7 +361,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -389,7 +378,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -402,119 +390,377 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
-    <cellStyle name="Normal 3" xfId="21"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMA9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMB9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="3.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="29.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="15" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="1015" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="1016" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.14"/>
+    <col min="1" max="1" width="5.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.06640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.9296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.265625" style="1" customWidth="1"/>
+    <col min="16" max="1015" width="8.53125" style="1"/>
+    <col min="1016" max="1016" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1017" max="1025" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -543,27 +789,30 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
+      <c r="ALY1"/>
+      <c r="ALZ1"/>
+      <c r="AMA1"/>
+      <c r="AMB1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>43831</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>2000000</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -576,23 +825,26 @@
         <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>44197</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>1000000</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>12000</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -605,23 +857,26 @@
         <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>44562</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>2000000</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>-20000</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -634,23 +889,26 @@
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>43831</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>2000000</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -663,23 +921,26 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>44927</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>2000000</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>-3000</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -692,23 +953,26 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>44197</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>1000000</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>12000</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -724,23 +988,26 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>43831</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>2000000</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>20000</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -753,23 +1020,26 @@
         <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>43831</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>2000000</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>-10000</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -782,27 +1052,25 @@
         <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G1009" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1009" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pool,CoInvest"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2:J1009" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1009" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Domestic,Overseas"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B71E34-906D-4EA3-AD43-A84018674E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08738426-7F56-4C90-82E9-C67E12EBAA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="368" windowWidth="23985" windowHeight="14264" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,9 +269,6 @@
     <t>Investment Date *</t>
   </si>
   <si>
-    <t>Amount *</t>
-  </si>
-  <si>
     <t>Quantity *</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>Amount (Excluding Expenses)*</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
   <dimension ref="A1:AMB9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,28 +771,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="ALY1"/>
       <c r="ALZ1"/>
@@ -801,10 +801,10 @@
     </row>
     <row r="2" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="3">
         <v>43831</v>
@@ -816,27 +816,27 @@
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="3">
         <v>44197</v>
@@ -848,27 +848,27 @@
         <v>12000</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>44562</v>
@@ -880,27 +880,27 @@
         <v>-20000</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>43831</v>
@@ -912,27 +912,27 @@
         <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>44927</v>
@@ -944,27 +944,27 @@
         <v>-3000</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>44197</v>
@@ -976,30 +976,30 @@
         <v>12000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>43831</v>
@@ -1011,27 +1011,27 @@
         <v>20000</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1016" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>43831</v>
@@ -1043,19 +1043,19 @@
         <v>-10000</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08738426-7F56-4C90-82E9-C67E12EBAA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F321CDC3-3A39-4ED2-8B9E-5AFAB3F20BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="368" windowWidth="23985" windowHeight="14264" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
   <si>
     <t>Fund</t>
   </si>
@@ -306,12 +306,6 @@
   </si>
   <si>
     <t>MSFT</t>
-  </si>
-  <si>
-    <t>CoInvest</t>
-  </si>
-  <si>
-    <t>C1</t>
   </si>
   <si>
     <t>KLAC</t>
@@ -736,7 +730,7 @@
   <dimension ref="A1:AMB9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -789,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -825,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>14</v>
@@ -857,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>14</v>
@@ -889,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>14</v>
@@ -921,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>14</v>
@@ -953,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>14</v>
@@ -967,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="D7" s="1">
         <v>1000000</v>
@@ -979,16 +973,13 @@
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>14</v>
@@ -999,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>43831</v>
@@ -1020,7 +1011,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>14</v>
@@ -1031,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>43831</v>
@@ -1052,7 +1043,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>14</v>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F321CDC3-3A39-4ED2-8B9E-5AFAB3F20BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F2DF6B-0650-4423-805F-551A486ED6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -199,36 +199,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Pool / CoInvest</t>
+          <t>Applicable if for CoInvest</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Applicable if for CoInvest</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -258,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
   <si>
     <t>Fund</t>
   </si>
@@ -275,9 +250,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Folio No</t>
   </si>
   <si>
@@ -294,9 +266,6 @@
   </si>
   <si>
     <t>Bought during dip</t>
-  </si>
-  <si>
-    <t>Pool</t>
   </si>
   <si>
     <t>Stock</t>
@@ -727,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMB9"/>
+  <dimension ref="A1:AMA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -741,20 +710,19 @@
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.06640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.9296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.265625" style="1" customWidth="1"/>
-    <col min="16" max="1015" width="8.53125" style="1"/>
-    <col min="1016" max="1016" width="9.1328125" style="1" customWidth="1"/>
-    <col min="1017" max="1025" width="9.1328125" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.9296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.265625" style="1" customWidth="1"/>
+    <col min="15" max="1014" width="8.53125" style="1"/>
+    <col min="1015" max="1015" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1016" max="1024" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1016" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -780,25 +748,22 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="ALX1"/>
       <c r="ALY1"/>
       <c r="ALZ1"/>
       <c r="AMA1"/>
-      <c r="AMB1"/>
     </row>
-    <row r="2" spans="1:1016" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>43831</v>
@@ -810,27 +775,24 @@
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:1016" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>44197</v>
@@ -842,27 +804,24 @@
         <v>12000</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:1016" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>44562</v>
@@ -874,27 +833,24 @@
         <v>-20000</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:1015" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1016" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>43831</v>
@@ -906,27 +862,24 @@
         <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="1:1016" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>44927</v>
@@ -938,27 +891,24 @@
         <v>-3000</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="7" spans="1:1016" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>44228</v>
@@ -970,27 +920,24 @@
         <v>12000</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:1015" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1016" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>43831</v>
@@ -1002,27 +949,24 @@
         <v>20000</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:1015" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1016" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>43831</v>
@@ -1034,28 +978,21 @@
         <v>-10000</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1009" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Pool,CoInvest"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1009" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1009" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Domestic,Overseas"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F2DF6B-0650-4423-805F-551A486ED6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CA039F-34E1-4021-9335-D3F623CBEBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,32 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Applicable if for CoInvest</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>Fund</t>
   </si>
@@ -248,9 +223,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Folio No</t>
   </si>
   <si>
     <t>Instrument</t>
@@ -696,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMA9"/>
+  <dimension ref="A1:ALZ9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
@@ -709,20 +681,19 @@
     <col min="3" max="3" width="16.265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.19921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.9296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="29.265625" style="1" customWidth="1"/>
-    <col min="15" max="1014" width="8.53125" style="1"/>
-    <col min="1015" max="1015" width="9.1328125" style="1" customWidth="1"/>
-    <col min="1016" max="1024" width="9.1328125" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.9296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.265625" style="1" customWidth="1"/>
+    <col min="14" max="1013" width="8.53125" style="1"/>
+    <col min="1014" max="1014" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1015" max="1023" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1015" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1014" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -733,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -745,25 +716,22 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="ALW1"/>
       <c r="ALX1"/>
       <c r="ALY1"/>
       <c r="ALZ1"/>
-      <c r="AMA1"/>
     </row>
-    <row r="2" spans="1:1015" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1014" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>43831</v>
@@ -775,24 +743,24 @@
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:1015" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1014" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>44197</v>
@@ -804,24 +772,24 @@
         <v>12000</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:1015" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1014" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>44562</v>
@@ -833,24 +801,24 @@
         <v>-20000</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:1014" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1015" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>43831</v>
@@ -862,24 +830,24 @@
         <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="6" spans="1:1015" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1014" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>44927</v>
@@ -891,24 +859,24 @@
         <v>-3000</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="7" spans="1:1015" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1014" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>44228</v>
@@ -920,24 +888,24 @@
         <v>12000</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="8" spans="1:1015" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1014" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>43831</v>
@@ -949,24 +917,24 @@
         <v>20000</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="9" spans="1:1015" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1014" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>43831</v>
@@ -978,21 +946,21 @@
         <v>-10000</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1009" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1009" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Domestic,Overseas"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/public/sample_uploads/portfolio_investments.xlsx
+++ b/public/sample_uploads/portfolio_investments.xlsx
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t xml:space="preserve">Fund</t>
   </si>
@@ -227,6 +227,9 @@
     <t xml:space="preserve">Excused Folio Ids</t>
   </si>
   <si>
+    <t xml:space="preserve">Proforma</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAAS Fund</t>
   </si>
   <si>
@@ -252,6 +255,9 @@
   </si>
   <si>
     <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
   </si>
 </sst>
 </file>
@@ -316,6 +322,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -394,24 +401,28 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -606,10 +617,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,49 +639,52 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="29.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="15" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="1015" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1016" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1016" style="2" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>43831</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -680,26 +694,26 @@
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -709,26 +723,26 @@
         <v>12000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>44562</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -738,26 +752,26 @@
         <v>-20000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>43831</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -767,26 +781,26 @@
         <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>44927</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -796,26 +810,26 @@
         <v>-3000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>44228</v>
       </c>
       <c r="D7" s="1" t="n">
@@ -825,26 +839,26 @@
         <v>12000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>43831</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -854,26 +868,26 @@
         <v>20000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>43831</v>
       </c>
       <c r="D9" s="1" t="n">
@@ -883,16 +897,48 @@
         <v>-10000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>43832</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
